--- a/Moderate Control Pair Values_Result.xlsx
+++ b/Moderate Control Pair Values_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FYP\Tianyu Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0199E699-EF1A-4087-894D-54BCE20A6F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380D150B-F65E-4B5B-9F2A-A96A2840BBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="27648" windowHeight="14544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5112" yWindow="1788" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>(34, 38)</t>
   </si>
@@ -117,6 +117,57 @@
   </si>
   <si>
     <t>(64, 68)</t>
+  </si>
+  <si>
+    <t>(68, 178)</t>
+  </si>
+  <si>
+    <t>(60, 96)</t>
+  </si>
+  <si>
+    <t>(62, 98)</t>
+  </si>
+  <si>
+    <t>(64, 100)</t>
+  </si>
+  <si>
+    <t>(66, 76)</t>
+  </si>
+  <si>
+    <t>(68, 78)</t>
+  </si>
+  <si>
+    <t>(40, 82)</t>
+  </si>
+  <si>
+    <t>(42, 84)</t>
+  </si>
+  <si>
+    <t>(76, 86)</t>
+  </si>
+  <si>
+    <t>(78, 88)</t>
+  </si>
+  <si>
+    <t>(56, 98)</t>
+  </si>
+  <si>
+    <t>(58, 100)</t>
+  </si>
+  <si>
+    <t>(34, 124)</t>
+  </si>
+  <si>
+    <t>(36, 126)</t>
+  </si>
+  <si>
+    <t>(38, 128)</t>
+  </si>
+  <si>
+    <t>(40, 130)</t>
+  </si>
+  <si>
+    <t>(42, 132)</t>
   </si>
 </sst>
 </file>
@@ -167,7 +218,467 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="51">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -444,10 +955,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +985,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A32" si="0">A2+1</f>
+        <f t="shared" ref="A3:A66" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -727,7 +1238,861 @@
         <v>31</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f t="shared" ref="A67:A129" si="1">A66+1</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B116">
+    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text=", 0]">
+      <formula>NOT(ISERROR(SEARCH(", 0]",B116)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="[0, ">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B116)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B116">
+    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="[100, 100]">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B116)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text=", 0]">
+      <formula>NOT(ISERROR(SEARCH(", 0]",B34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="[0, ">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="[100, 100]">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text=", 0]">
+      <formula>NOT(ISERROR(SEARCH(", 0]",B36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="[0, ">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="[100, 100]">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text=", 0]">
+      <formula>NOT(ISERROR(SEARCH(", 0]",B38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="[0, ">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="[100, 100]">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text=", 0]">
+      <formula>NOT(ISERROR(SEARCH(", 0]",B39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="[0, ">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="[100, 100]">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text=", 0]">
+      <formula>NOT(ISERROR(SEARCH(", 0]",B41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="[0, ">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="[100, 100]">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text=", 0]">
+      <formula>NOT(ISERROR(SEARCH(", 0]",B45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="[0, ">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="[100, 100]">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text=", 0]">
+      <formula>NOT(ISERROR(SEARCH(", 0]",B47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="[0, ">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="[100, 100]">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text=", 0]">
+      <formula>NOT(ISERROR(SEARCH(", 0]",B49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="[0, ">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="[100, 100]">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text=", 0]">
+      <formula>NOT(ISERROR(SEARCH(", 0]",B51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="[0, ">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="[100, 100]">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text=", 0]">
+      <formula>NOT(ISERROR(SEARCH(", 0]",B61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="[0, ">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="[100, 100]">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text=", 0]">
+      <formula>NOT(ISERROR(SEARCH(", 0]",B63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="[0, ">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="[100, 100]">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text=", 0]">
+      <formula>NOT(ISERROR(SEARCH(", 0]",B71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="[0, ">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="[100, 100]">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text=", 0]">
+      <formula>NOT(ISERROR(SEARCH(", 0]",B73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="[0, ">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="[100, 100]">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text=", 0]">
+      <formula>NOT(ISERROR(SEARCH(", 0]",B75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="[0, ">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="[100, 100]">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text=", 0]">
+      <formula>NOT(ISERROR(SEARCH(", 0]",B77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="[0, ">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="[100, 100]">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text=", 0]">
+      <formula>NOT(ISERROR(SEARCH(", 0]",B79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="[0, ">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="[100, 100]">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Moderate Control Pair Values_Result.xlsx
+++ b/Moderate Control Pair Values_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FYP\Tianyu Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380D150B-F65E-4B5B-9F2A-A96A2840BBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DFF957-2035-4828-ABD2-530471D1ADC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5112" yWindow="1788" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="560" windowWidth="15380" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>(34, 38)</t>
   </si>
@@ -168,6 +168,24 @@
   </si>
   <si>
     <t>(42, 132)</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Registers that can be confirmed using unique pair values in two consecutive bytes.</t>
+  </si>
+  <si>
+    <t>Registers that can be confirmed uisng all combinations in two consecutive bytes.</t>
+  </si>
+  <si>
+    <t>Registers that can be confirmed using the numbebr of all combination keystream equals to one in two consecutive bytes.</t>
+  </si>
+  <si>
+    <t>Probability &lt; 95%  100/(100+5) * 100% = 95. 24%</t>
+  </si>
+  <si>
+    <t>Registers that can be confirmed using the probability of numbebr of all combination keystream equals to one in two consecutive bytes. Probability &gt; 95%</t>
   </si>
 </sst>
 </file>
@@ -183,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +211,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,11 +251,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -955,1144 +1021,1469 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="8.7265625" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <f>A1+1</f>
+      <c r="E7" s="9"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f>A7+1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f t="shared" ref="A3:A66" si="0">A2+1</f>
+      <c r="F8" s="13">
+        <v>0.92589999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" ref="A9:A72" si="0">A8+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="E9" s="9"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="F10" s="14">
+        <v>0.84030000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="E11" s="9"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="F12" s="14">
+        <v>0.7752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="E13" s="9"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="F14" s="14">
+        <v>0.86209999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="E15" s="9"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="F16" s="14">
+        <v>0.85470000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="E17" s="9"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="F18" s="14">
+        <v>0.84030000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="E19" s="9"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="F20" s="14">
+        <v>0.78129999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="E21" s="9"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="F22" s="14">
+        <v>0.74629999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="E23" s="9"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="E24" s="9"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="E25" s="9"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="E26" s="9"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="E27" s="9"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="E29" s="9"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="F30" s="14">
+        <v>0.73529999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="E31" s="9"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="F32" s="15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="E33" s="9"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="F34" s="14">
+        <v>0.63690000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="E35" s="9"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="F36" s="14">
+        <v>0.58479999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="E37" s="9"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="F38" s="14">
+        <v>0.56820000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="F39" s="14">
+        <v>0.94340000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="E40" s="9"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="E42" s="9"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="E45" s="9"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="F46" s="14">
+        <v>0.94340000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="E47" s="9"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="E49" s="9"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="F50" s="14">
+        <v>0.51019999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="E51" s="9"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="F52" s="14">
+        <v>0.4975</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="E53" s="9"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="F54" s="14">
+        <v>0.5181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="E55" s="9"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="E57" s="9"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="E59" s="9"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="F60" s="14">
+        <v>0.84030000000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="E61" s="9"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="F62" s="14">
+        <v>0.89290000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="E63" s="9"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="F64" s="14">
+        <v>0.85470000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="E65" s="9"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="F66" s="15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="E67" s="9"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="F68" s="14">
+        <v>0.78739999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="E69" s="9"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="F70" s="14">
+        <v>0.78739999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="E71" s="9"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <f t="shared" ref="A67:A129" si="1">A66+1</f>
+      <c r="F72" s="14">
+        <v>0.40820000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <f t="shared" ref="A73:A135" si="1">A72+1</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="E73" s="9"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="F74" s="14">
+        <v>0.45050000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="E75" s="9"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="F76" s="14">
+        <v>0.4032</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="E77" s="9"/>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74">
+      <c r="E79" s="9"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="E81" s="9"/>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78">
+      <c r="E83" s="9"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="E85" s="9"/>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="F87" s="10"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="E89" s="9"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86">
+      <c r="E91" s="9"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87">
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88">
+      <c r="E93" s="9"/>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89">
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="E95" s="9"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91">
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92">
+      <c r="E97" s="9"/>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93">
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94">
+      <c r="E99" s="9"/>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95">
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96">
+      <c r="E101" s="9"/>
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97">
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98">
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99">
+      <c r="F104" s="14">
+        <v>0.86209999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100">
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101">
+      <c r="E106" s="9"/>
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102">
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103">
+      <c r="F108" s="10"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104">
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105">
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106">
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107">
+      <c r="F112" s="10"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108">
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109">
+      <c r="F114" s="14">
+        <v>0.60980000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110">
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111">
+      <c r="F116" s="14">
+        <v>0.61729999999999996</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112">
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113">
+      <c r="F118" s="14">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114">
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115">
+      <c r="F120" s="14">
+        <v>0.82640000000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116">
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117">
+      <c r="E122" s="9"/>
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118">
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119">
+      <c r="F124" s="10"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120">
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121">
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122">
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123">
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124">
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125">
+      <c r="F130" s="14">
+        <v>0.61729999999999996</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126">
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127">
+      <c r="F132" s="14">
+        <v>0.62109999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128">
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <f t="shared" si="1"/>
-        <v>128</v>
+      <c r="F134" s="14">
+        <v>0.63290000000000002</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B116">
+  <mergeCells count="3">
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B5:F5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B122">
     <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B116)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B122)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B116)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B116">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B122)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122">
     <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B116)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B122)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
     <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B34)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B40)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
     <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
     <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B36)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B42)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
     <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
     <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B38)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B44)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
     <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
     <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B39)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B45)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
     <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
     <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B41)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B47)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
     <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51">
     <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B45)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51">
     <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
     <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B47)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B53)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
     <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
     <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B49)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B55)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
     <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B51)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B57)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
     <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
     <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B61)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B67)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
     <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
     <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B63)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B69)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
     <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77">
     <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B71)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B77)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77">
     <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79">
     <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B73)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B79)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B73)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79">
     <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B73)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81">
     <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B75)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B81)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B75)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B81)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B75)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B81)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B77)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B83)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B77)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B77)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B79)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B85)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B85)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B79)))</formula>
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Moderate Control Pair Values_Result.xlsx
+++ b/Moderate Control Pair Values_Result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FYP\Tianyu Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DFF957-2035-4828-ABD2-530471D1ADC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D35B2A4-4A35-4553-BBFF-B4839BA91ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="560" windowWidth="15380" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="93">
   <si>
     <t>(34, 38)</t>
   </si>
@@ -186,6 +186,132 @@
   </si>
   <si>
     <t>Registers that can be confirmed using the probability of numbebr of all combination keystream equals to one in two consecutive bytes. Probability &gt; 95%</t>
+  </si>
+  <si>
+    <t>(Δ34 = Δ38= Δ54= Δ66 =0)  and (Δ44 = Δ48= Δ64 =0) and(Δ64 = Δ82 = 1)</t>
+  </si>
+  <si>
+    <t>(Δ64= Δ68=1)  and(Δ34 = Δ38= Δ54= Δ66 =0) and (Δ36 = Δ40= Δ56= Δ68 =0) and (Δ42 = Δ46= Δ62 = 0) and (Δ46 = Δ50 = 0)</t>
+  </si>
+  <si>
+    <t>(Δ48=Δ84=1) and (Δ50 =Δ 54=Δ70=0)</t>
+  </si>
+  <si>
+    <t>If none of these conditions satisfy</t>
+  </si>
+  <si>
+    <t>(Δ38= Δ42= Δ58=0)  and(Δ42= Δ46=Δ62=0) and (Δ44=Δ64= Δ48=0)  and (Δ42= Δ96=1)</t>
+  </si>
+  <si>
+    <t>If condition does not satisfy for target register 4, 8, 9, 10, and [42, 96] = 1</t>
+  </si>
+  <si>
+    <t>If condition does not satisfy for target register 0, 10, and [64, 82] = 1</t>
+  </si>
+  <si>
+    <t>If condition does not satisfy for target register 0, 2, 8,12, and [64, 68] = 1</t>
+  </si>
+  <si>
+    <t>If condition does not satisfy for target register 0, 1,2,8, and [34, 82] and [34, 88] = 1</t>
+  </si>
+  <si>
+    <t>(Δ34= Δ82=Δ88=1)  and (Δ34 = Δ38= Δ54= Δ66 =0)  and (Δ64 = Δ82 = 0) and (Δ36 = Δ40= Δ56= Δ68 =0)and (Δ42 = Δ46= Δ62 = 0)</t>
+  </si>
+  <si>
+    <t>If condition does not satisfy for target register 2,3,4,10, and [36,84], [36,90] = 1</t>
+  </si>
+  <si>
+    <t>(Δ38= Δ42= Δ58=0)  and(Δ64= Δ68=0) and (Δ42= Δ46=Δ62=0) and  (Δ44 = Δ48= Δ64 =0) and ((Δ36= Δ84= Δ90 =1)</t>
+  </si>
+  <si>
+    <t>If condition does not satisfy for target register 0,4,5,6,12, and [38, 92] = 1</t>
+  </si>
+  <si>
+    <t>(Δ34 = Δ38= Δ54= Δ66 =0)  and (Δ38= Δ42= Δ58=0)  and ( Δ68= Δ86= 0) and (Δ40= Δ44= Δ60=0)and (Δ46 = Δ50 = 0)and(Δ38 = Δ92 = 1)</t>
+  </si>
+  <si>
+    <t>If condition does not satisfy for target register 2,6,7,8,14, and [40,94] = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Δ34 = Δ38= Δ54= Δ66 =0) and (Δ34= Δ82=Δ88=0)  and(Δ36 = Δ40= Δ56= Δ68 =0) and(Δ48= Δ52=0)  and (Δ40= Δ94=1)  </t>
+  </si>
+  <si>
+    <t>If condition does not satisfy for target register , and [ ] = 1</t>
+  </si>
+  <si>
+    <t>If condition does not satisfy for target register 16, and [48,84 ] = 1</t>
+  </si>
+  <si>
+    <t>Byte 0&amp;1</t>
+  </si>
+  <si>
+    <t>Byte 2&amp;3</t>
+  </si>
+  <si>
+    <t>Byte 4&amp;5</t>
+  </si>
+  <si>
+    <t>Byte 6&amp;7</t>
+  </si>
+  <si>
+    <t>Byte 8&amp;9</t>
+  </si>
+  <si>
+    <t>Byte 10&amp;11</t>
+  </si>
+  <si>
+    <t>Byte 12&amp;13</t>
+  </si>
+  <si>
+    <t>Byte 14&amp;15</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>If condition does not satisfy for target register16,17,18,24 , and [50,98 ] = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Δ50 =Δ 54=Δ70=0) and (Δ44=Δ80=0) and (Δ52 =Δ 56=Δ72=0) and (Δ58=Δ62=0)   and (Δ50=Δ98=1)  </t>
+  </si>
+  <si>
+    <t>If condition does not satisfy for target register18,19,20,26 , and [52, 100] = 1</t>
+  </si>
+  <si>
+    <t>If condition does not satisfy for target register16,20,22,28 , and [54, 108] = 1</t>
+  </si>
+  <si>
+    <t>(Δ50 =Δ 54=Δ70=0)and(Δ54=Δ58=0) and(Δ56=Δ60=0) and(Δ62=Δ66=0) and(Δ54=Δ108=0)</t>
+  </si>
+  <si>
+    <t>If condition does not satisfy for target register18,22,23,24,30 , and [ 56,110] = 1</t>
+  </si>
+  <si>
+    <t>(Δ52 =Δ 56=Δ72=0) and(Δ56=Δ60=0) and(Δ50=Δ98=0) and(Δ58=Δ62=0)and (Δ64=Δ68=0)   and (Δ56=Δ110=1)</t>
+  </si>
+  <si>
+    <t>If condition does not satisfy for target register17,20,24,25,26, and [ 58,112] = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Δ52 =Δ 56=Δ72=0) and(Δ46=Δ82=0)   and(Δ54=Δ58=0)   and(Δ60=Δ64=0)and(Δ52=Δ100=1) </t>
+  </si>
+  <si>
+    <t>(Δ44=Δ80=0) and(Δ54=Δ58=0) and (Δ58=Δ62=0)   and(Δ52=Δ100=0) and  (Δ60=Δ64=0)and(Δ58=Δ112=1)</t>
+  </si>
+  <si>
+    <t>If condition does not satisfy for target register38 , and [66,70 ] = 1</t>
+  </si>
+  <si>
+    <t>(Δ66=Δ76=0) and (Δ66 =Δ70=1)</t>
+  </si>
+  <si>
+    <t>If condition does not satisfy for target register 34, 41,44 , and [82,102 ] = 1</t>
+  </si>
+  <si>
+    <t>Registers that cannot be confirmed directly but under certain conditions</t>
   </si>
 </sst>
 </file>
@@ -201,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +364,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -251,35 +383,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1021,19 +1160,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="8.7265625" style="6"/>
+    <col min="2" max="2" width="9.08984375" customWidth="1"/>
+    <col min="7" max="7" width="113.453125" customWidth="1"/>
+    <col min="8" max="8" width="65.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="2"/>
@@ -1043,37 +1184,45 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
@@ -1093,1394 +1242,1666 @@
       <c r="N4" s="11"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
-        <f>A7+1</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="13">
-        <v>0.92589999999999995</v>
-      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f t="shared" ref="A9:A72" si="0">A8+1</f>
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="3"/>
+        <f>A8+1</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A10:A77" si="0">A9+1</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="14">
-        <v>0.84030000000000005</v>
-      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.84030000000000005</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0.7752</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.7752</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F14" s="14">
-        <v>0.86209999999999998</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F17" s="9">
         <v>0.85470000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17">
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="E18" s="6"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F19" s="9">
         <v>0.84030000000000005</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="E20" s="6"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F21" s="9">
         <v>0.78129999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21">
+      <c r="G21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22">
+      <c r="E22" s="6"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F23" s="9">
         <v>0.74629999999999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <f t="shared" si="0"/>
+      <c r="G23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <f>A23+1</f>
         <v>16</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="E25" s="6"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="E26" s="6"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="E27" s="6"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="E28" s="6"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28">
+      <c r="E29" s="6"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29">
+      <c r="F30" s="7"/>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30">
+      <c r="E31" s="6"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F32" s="9">
         <v>0.73529999999999995</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31">
+      <c r="G32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32">
+      <c r="E33" s="6"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F34" s="10">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33">
+      <c r="G34" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34">
+      <c r="E35" s="6"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F36" s="9">
         <v>0.63690000000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35">
+      <c r="G36" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36">
+      <c r="E37" s="6"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F38" s="9">
         <v>0.58479999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37">
+      <c r="G38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38">
+      <c r="E39" s="6"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F40" s="9">
         <v>0.56820000000000004</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <f t="shared" si="0"/>
+      <c r="G40" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <f>A40+1</f>
         <v>32</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F42" s="9">
         <v>0.94340000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40">
+      <c r="G42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41">
+      <c r="E43" s="6"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42">
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43">
+      <c r="E45" s="6"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44">
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46">
+      <c r="E48" s="6"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F49" s="9">
         <v>0.94340000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47">
+      <c r="H49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48">
+      <c r="E50" s="6"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49">
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50">
+      <c r="E52" s="6"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F53" s="9">
         <v>0.51019999999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51">
+      <c r="H53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52">
+      <c r="E54" s="6"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F55" s="9">
         <v>0.4975</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53">
+      <c r="H55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54">
+      <c r="E56" s="6"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F57" s="9">
         <v>0.5181</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <f t="shared" si="0"/>
+      <c r="H57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <f>A57+1</f>
         <v>48</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56">
+      <c r="E59" s="6"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57">
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58">
+      <c r="E61" s="6"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="F58" s="10"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59">
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60">
+      <c r="E63" s="6"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F64" s="9">
         <v>0.84030000000000005</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61">
+      <c r="H64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62">
+      <c r="E65" s="6"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F66" s="9">
         <v>0.89290000000000003</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63">
+      <c r="H66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64">
+      <c r="E67" s="6"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F68" s="9">
         <v>0.85470000000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65">
+      <c r="H68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="3"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66">
+      <c r="E69" s="6"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="F66" s="15">
+      <c r="F70" s="10">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67">
+      <c r="H70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68">
+      <c r="E71" s="6"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F72" s="9">
         <v>0.78739999999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69">
+      <c r="H72" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70">
+      <c r="E73" s="6"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F74" s="9">
         <v>0.78739999999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <f t="shared" si="0"/>
+      <c r="H74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <f>A74+1</f>
         <v>64</v>
       </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="3"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72">
+      <c r="E76" s="6"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F77" s="9">
         <v>0.40820000000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <f t="shared" ref="A73:A135" si="1">A72+1</f>
+      <c r="H77" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <f t="shared" ref="A78:A142" si="1">A77+1</f>
         <v>66</v>
       </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="3"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74">
+      <c r="E78" s="6"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F79" s="9">
         <v>0.45050000000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75">
+      <c r="H79" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="E75" s="9"/>
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76">
+      <c r="E80" s="6"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F81" s="9">
         <v>0.4032</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77">
+      <c r="H81" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78">
+      <c r="E82" s="6"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79">
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80">
+      <c r="E84" s="6"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81">
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="3"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82">
+      <c r="E86" s="6"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="F82" s="10"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83">
+      <c r="F87" s="7"/>
+      <c r="H87" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E83" s="9"/>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84">
+      <c r="E88" s="6"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85">
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E85" s="9"/>
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86">
+      <c r="E90" s="6"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <f t="shared" si="1"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="13"/>
+      <c r="B92" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <f>A91+1</f>
         <v>80</v>
       </c>
-      <c r="F87" s="10"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88">
+      <c r="F93" s="7"/>
+      <c r="H93" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="F88" s="3"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89">
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="E89" s="9"/>
-      <c r="F89" s="3"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90">
+      <c r="E95" s="6"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91">
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92">
+      <c r="E97" s="6"/>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93">
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="E93" s="9"/>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94">
+      <c r="E99" s="6"/>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95">
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="E95" s="9"/>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96">
+      <c r="E101" s="6"/>
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97">
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="E97" s="9"/>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98">
+      <c r="E103" s="6"/>
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99">
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="E99" s="9"/>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100">
+      <c r="E105" s="6"/>
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101">
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="E101" s="9"/>
-      <c r="F101" s="3"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102">
+      <c r="E107" s="6"/>
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103">
-        <f t="shared" si="1"/>
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" s="13"/>
+      <c r="B109" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <f>A108+1</f>
         <v>96</v>
       </c>
-      <c r="F103" s="3"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104">
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="F104" s="14">
+      <c r="F111" s="9">
         <v>0.86209999999999998</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105">
+      <c r="H111" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="F105" s="3"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106">
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="E106" s="9"/>
-      <c r="F106" s="3"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107">
+      <c r="E113" s="6"/>
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F107" s="3"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108">
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="F108" s="10"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109">
+      <c r="F115" s="7"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="F109" s="3"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110">
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="F110" s="3"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111">
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="F111" s="3"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112">
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="F112" s="10"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113">
+      <c r="F119" s="7"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A120">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="F113" s="3"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114">
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="F114" s="14">
+      <c r="F121" s="9">
         <v>0.60980000000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115">
+      <c r="H121" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="F115" s="3"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116">
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="F116" s="14">
+      <c r="F123" s="9">
         <v>0.61729999999999996</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117">
+      <c r="H123" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118">
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="F118" s="14">
+      <c r="F125" s="9">
         <v>0.64100000000000001</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A119">
-        <f t="shared" si="1"/>
+      <c r="H125" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" s="13"/>
+      <c r="B126" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <f>A125+1</f>
         <v>112</v>
       </c>
-      <c r="F119" s="3"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120">
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="F120" s="14">
+      <c r="F128" s="9">
         <v>0.82640000000000002</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121">
+      <c r="H128" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="F121" s="3"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A122">
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E122" s="9"/>
-      <c r="F122" s="3"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123">
+      <c r="E130" s="6"/>
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="F123" s="3"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124">
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="F124" s="10"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125">
+      <c r="F132" s="7"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="F125" s="3"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A126">
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A134">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="F126" s="3"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A127">
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A135">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F127" s="3"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A128">
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A136">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="F128" s="3"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129">
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="F129" s="3"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A130">
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A138">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="F130" s="14">
+      <c r="F138" s="9">
         <v>0.61729999999999996</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A131">
+      <c r="H138" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="F131" s="3"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A132">
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="F132" s="14">
+      <c r="F140" s="9">
         <v>0.62109999999999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A133">
+      <c r="H140" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="F133" s="3"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A134">
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="F134" s="14">
+      <c r="F142" s="9">
         <v>0.63290000000000002</v>
       </c>
+      <c r="H142" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B4:N4"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B5:F5"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="J2:N2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B122">
+  <conditionalFormatting sqref="B130">
     <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B122)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B130)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B122)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B130)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
     <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B122)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B130)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
     <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B40)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B43)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
     <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
     <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B42)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B45)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
     <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
     <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B44)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B47)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
     <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
     <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B45)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
     <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
     <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B47)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
     <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
     <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B51)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B54)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
     <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56">
     <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B53)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B56)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56">
     <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
     <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B55)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B59)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
     <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B57)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B61)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
     <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
     <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B67)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B71)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
     <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
     <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B69)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B73)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
     <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
     <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B77)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B82)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B77)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B82)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
     <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B77)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B82)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84">
     <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B79)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B84)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B84)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84">
     <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B84)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86">
     <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B81)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B86)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B81)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B86)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B81)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B86)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B83)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B88)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B88)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B85">
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B88)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text=", 0]">
-      <formula>NOT(ISERROR(SEARCH(", 0]",B85)))</formula>
+      <formula>NOT(ISERROR(SEARCH(", 0]",B90)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="[0, ">
-      <formula>NOT(ISERROR(SEARCH("[0, ",B85)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B85">
+      <formula>NOT(ISERROR(SEARCH("[0, ",B90)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="[100, 100]">
-      <formula>NOT(ISERROR(SEARCH("[100, 100]",B85)))</formula>
+      <formula>NOT(ISERROR(SEARCH("[100, 100]",B90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
